--- a/conf/files/example.xlsx
+++ b/conf/files/example.xlsx
@@ -1,51 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nacho\Web_Index\wiFetcher\conf\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="30" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="554" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="554" firstSheet="26" activeTab="30"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="A-RAW" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="B-RAW" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="C-RAW" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Q1" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Q2" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="D-Raw" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="A-Imputed" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="B-Imputed" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="C-Imputed" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="D-Imputed" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="A-Ordered" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="B-Ordered" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="C-Ordered" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="D-Ordered" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Q1-Sorted" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="Q2-Sorted" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="A-Normalised" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="B-Normalised" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="C-Normalised" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="D-Normalised" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="Q1-Normalized" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="Q2-Normalized" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="Indicators-Normalized" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="Indicators-Adjusted" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="Indicators-Weighted" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="Clusters-Grouped" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="Subindex-Grouped" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="Composite" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="Rankings" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="Survey-Raw" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="A-RAW" sheetId="2" r:id="rId2"/>
+    <sheet name="B-RAW" sheetId="3" r:id="rId3"/>
+    <sheet name="C-RAW" sheetId="4" r:id="rId4"/>
+    <sheet name="Q1" sheetId="5" r:id="rId5"/>
+    <sheet name="Q2" sheetId="6" r:id="rId6"/>
+    <sheet name="D-Raw" sheetId="7" r:id="rId7"/>
+    <sheet name="A-Imputed" sheetId="8" r:id="rId8"/>
+    <sheet name="B-Imputed" sheetId="9" r:id="rId9"/>
+    <sheet name="C-Imputed" sheetId="10" r:id="rId10"/>
+    <sheet name="D-Imputed" sheetId="11" r:id="rId11"/>
+    <sheet name="A-Ordered" sheetId="12" r:id="rId12"/>
+    <sheet name="B-Ordered" sheetId="13" r:id="rId13"/>
+    <sheet name="C-Ordered" sheetId="14" r:id="rId14"/>
+    <sheet name="D-Ordered" sheetId="15" r:id="rId15"/>
+    <sheet name="Q1-Sorted" sheetId="16" r:id="rId16"/>
+    <sheet name="Q2-Sorted" sheetId="17" r:id="rId17"/>
+    <sheet name="A-Normalised" sheetId="18" r:id="rId18"/>
+    <sheet name="B-Normalised" sheetId="19" r:id="rId19"/>
+    <sheet name="C-Normalised" sheetId="20" r:id="rId20"/>
+    <sheet name="D-Normalised" sheetId="21" r:id="rId21"/>
+    <sheet name="Q1-Normalized" sheetId="22" r:id="rId22"/>
+    <sheet name="Q2-Normalized" sheetId="23" r:id="rId23"/>
+    <sheet name="Indicators-Normalized" sheetId="24" r:id="rId24"/>
+    <sheet name="Indicators-Adjusted" sheetId="25" r:id="rId25"/>
+    <sheet name="Indicators-Weighted" sheetId="26" r:id="rId26"/>
+    <sheet name="Clusters-Grouped" sheetId="27" r:id="rId27"/>
+    <sheet name="Subindex-Grouped" sheetId="28" r:id="rId28"/>
+    <sheet name="Composite" sheetId="29" r:id="rId29"/>
+    <sheet name="Rankings" sheetId="30" r:id="rId30"/>
+    <sheet name="Survey-Raw" sheetId="31" r:id="rId31"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="countries" vbProcedure="false">Metadata!$A$14:$A$249</definedName>
-    <definedName function="false" hidden="false" name="datatype" vbProcedure="false">Metadata!$A$5:$A$7</definedName>
-    <definedName function="false" hidden="false" name="indicators" vbProcedure="false">Metadata!$A$252:$A$336</definedName>
+    <definedName name="countries">Metadata!$A$14:$A$249</definedName>
+    <definedName name="datatype">Metadata!$A$5:$A$7</definedName>
+    <definedName name="indicators">Metadata!$A$252:$A$336</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -844,7 +848,7 @@
     <t>AB</t>
   </si>
   <si>
-    <t>C </t>
+    <t>C</t>
   </si>
   <si>
     <t>DQ1</t>
@@ -868,7 +872,7 @@
     <t>Secondary</t>
   </si>
   <si>
-    <t> </t>
+    <t/>
   </si>
   <si>
     <t>Indicator</t>
@@ -904,13 +908,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
-    <numFmt formatCode="GENERAL" numFmtId="166"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -918,22 +920,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Verdana"/>
@@ -947,7 +934,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
@@ -961,14 +948,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -995,7 +982,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Verdana"/>
@@ -1009,7 +996,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Arial"/>
@@ -1050,183 +1037,84 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="10" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="12" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="5" fontId="14" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="5" fontId="15" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1285,1423 +1173,1697 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C272"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1294642857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.75"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.75"/>
+    <col min="1" max="1" width="27.125"/>
+    <col min="2" max="2" width="32.75"/>
+    <col min="3" max="3" width="38.75"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="21.75" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4" s="4">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="6">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="7">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="9" s="3">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="11">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="13" s="3">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="25">
-      <c r="A25" s="0" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="26">
-      <c r="A26" s="0" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="27">
-      <c r="A27" s="0" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="28">
-      <c r="A28" s="0" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="29">
-      <c r="A29" s="0" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="30">
-      <c r="A30" s="0" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="31">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="32">
-      <c r="A32" s="0" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="33">
-      <c r="A33" s="0" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="34">
-      <c r="A34" s="0" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="35">
-      <c r="A35" s="0" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="36">
-      <c r="A36" s="0" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="37">
-      <c r="A37" s="0" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="38">
-      <c r="A38" s="0" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="39">
-      <c r="A39" s="0" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="40">
-      <c r="A40" s="0" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="41">
-      <c r="A41" s="0" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="42">
-      <c r="A42" s="0" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="43">
-      <c r="A43" s="0" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="44">
-      <c r="A44" s="0" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="45">
-      <c r="A45" s="0" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="46">
-      <c r="A46" s="0" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="49">
-      <c r="A49" s="0" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="50">
-      <c r="A50" s="0" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="51">
-      <c r="A51" s="0" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="52">
-      <c r="A52" s="0" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="53">
-      <c r="A53" s="0" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="54">
-      <c r="A54" s="0" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="55">
-      <c r="A55" s="0" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="56">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="57">
-      <c r="A57" s="0" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>58</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="58">
-      <c r="A58" s="0" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="59">
-      <c r="A59" s="0" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="60">
-      <c r="A60" s="0" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="61">
-      <c r="A61" s="0" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="62">
-      <c r="A62" s="0" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>63</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="63">
-      <c r="A63" s="0" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="64">
-      <c r="A64" s="0" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="65">
-      <c r="A65" s="0" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="66">
-      <c r="A66" s="0" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="67">
-      <c r="A67" s="0" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="68">
-      <c r="A68" s="0" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="69">
-      <c r="A69" s="0" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="70">
-      <c r="A70" s="0" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="71">
-      <c r="A71" s="0" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="72">
-      <c r="A72" s="0" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="73">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="74">
-      <c r="A74" s="0" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="75">
-      <c r="A75" s="0" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>76</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="76">
-      <c r="A76" s="0" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="77">
-      <c r="A77" s="0" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>78</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="78">
-      <c r="A78" s="0" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="79">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="80">
-      <c r="A80" s="0" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="81">
-      <c r="A81" s="0" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>82</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="82">
-      <c r="A82" s="0" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="83">
-      <c r="A83" s="0" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="84">
-      <c r="A84" s="0" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="85">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="86">
-      <c r="A86" s="0" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="87">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="88">
-      <c r="A88" s="0" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>89</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="89">
-      <c r="A89" s="0" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="90">
-      <c r="A90" s="0" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="91">
-      <c r="A91" s="0" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="92">
-      <c r="A92" s="0" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="93">
-      <c r="A93" s="0" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>94</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="94">
-      <c r="A94" s="0" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>95</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="95">
-      <c r="A95" s="0" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>96</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="96">
-      <c r="A96" s="0" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="97">
-      <c r="A97" s="0" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="98">
-      <c r="A98" s="0" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="99">
-      <c r="A99" s="0" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="100">
-      <c r="A100" s="0" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="101">
-      <c r="A101" s="0" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="102">
-      <c r="A102" s="0" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="103">
-      <c r="A103" s="0" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>104</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="104">
-      <c r="A104" s="0" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="105">
-      <c r="A105" s="0" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="106">
-      <c r="A106" s="0" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>107</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="107">
-      <c r="A107" s="0" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="108">
-      <c r="A108" s="0" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="109">
-      <c r="A109" s="0" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="110">
-      <c r="A110" s="0" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="111">
-      <c r="A111" s="0" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="112">
-      <c r="A112" s="0" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="113">
-      <c r="A113" s="0" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="114">
-      <c r="A114" s="0" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="115">
-      <c r="A115" s="0" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>116</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="116">
-      <c r="A116" s="0" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="117">
-      <c r="A117" s="0" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="118">
-      <c r="A118" s="0" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="119">
-      <c r="A119" s="0" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="120">
-      <c r="A120" s="0" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="121">
-      <c r="A121" s="0" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="122">
-      <c r="A122" s="0" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="123">
-      <c r="A123" s="0" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="124">
-      <c r="A124" s="0" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="125">
-      <c r="A125" s="0" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="126">
-      <c r="A126" s="0" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="127">
-      <c r="A127" s="0" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="128">
-      <c r="A128" s="0" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>129</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="129">
-      <c r="A129" s="0" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="130">
-      <c r="A130" s="0" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="131">
-      <c r="A131" s="0" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="132">
-      <c r="A132" s="0" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="133">
-      <c r="A133" s="0" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="134">
-      <c r="A134" s="0" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="135">
-      <c r="A135" s="0" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="136">
-      <c r="A136" s="0" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="137">
-      <c r="A137" s="0" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>138</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="138">
-      <c r="A138" s="0" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="139">
-      <c r="A139" s="0" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>140</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="140">
-      <c r="A140" s="0" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="141">
-      <c r="A141" s="0" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>142</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="142">
-      <c r="A142" s="0" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="143">
-      <c r="A143" s="0" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="144">
-      <c r="A144" s="0" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="145">
-      <c r="A145" s="0" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="146">
-      <c r="A146" s="0" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="147">
-      <c r="A147" s="0" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="148">
-      <c r="A148" s="0" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="149">
-      <c r="A149" s="0" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="150">
-      <c r="A150" s="0" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="151">
-      <c r="A151" s="0" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="152">
-      <c r="A152" s="0" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="153">
-      <c r="A153" s="0" t="s">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="154">
-      <c r="A154" s="0" t="s">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>155</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="155">
-      <c r="A155" s="0" t="s">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="156">
-      <c r="A156" s="0" t="s">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>157</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="157">
-      <c r="A157" s="0" t="s">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="158">
-      <c r="A158" s="0" t="s">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>159</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="159">
-      <c r="A159" s="0" t="s">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="160">
-      <c r="A160" s="0" t="s">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="161">
-      <c r="A161" s="0" t="s">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>162</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="162">
-      <c r="A162" s="0" t="s">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="163">
-      <c r="A163" s="0" t="s">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="164">
-      <c r="A164" s="0" t="s">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>165</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="165">
-      <c r="A165" s="0" t="s">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="166">
-      <c r="A166" s="0" t="s">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>167</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="167">
-      <c r="A167" s="0" t="s">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="168">
-      <c r="A168" s="0" t="s">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>169</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="169">
-      <c r="A169" s="0" t="s">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="170">
-      <c r="A170" s="0" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="171">
-      <c r="A171" s="0" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>172</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="172">
-      <c r="A172" s="0" t="s">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="173">
-      <c r="A173" s="0" t="s">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>174</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="174">
-      <c r="A174" s="0" t="s">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="175">
-      <c r="A175" s="0" t="s">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="176">
-      <c r="A176" s="0" t="s">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="177">
-      <c r="A177" s="0" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>178</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="178">
-      <c r="A178" s="0" t="s">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="179">
-      <c r="A179" s="0" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="180">
-      <c r="A180" s="0" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="181">
-      <c r="A181" s="0" t="s">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="182">
-      <c r="A182" s="0" t="s">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="183">
-      <c r="A183" s="0" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>184</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="184">
-      <c r="A184" s="0" t="s">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="185">
-      <c r="A185" s="0" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="186">
-      <c r="A186" s="0" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="187">
-      <c r="A187" s="0" t="s">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>188</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="188">
-      <c r="A188" s="0" t="s">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="189">
-      <c r="A189" s="0" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="190">
-      <c r="A190" s="0" t="s">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="191">
-      <c r="A191" s="0" t="s">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="192">
-      <c r="A192" s="0" t="s">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="193">
-      <c r="A193" s="0" t="s">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>194</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="194">
-      <c r="A194" s="0" t="s">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="195">
-      <c r="A195" s="0" t="s">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="196">
-      <c r="A196" s="0" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="197">
-      <c r="A197" s="0" t="s">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>198</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="198">
-      <c r="A198" s="0" t="s">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="199">
-      <c r="A199" s="0" t="s">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="200">
-      <c r="A200" s="0" t="s">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="201">
-      <c r="A201" s="0" t="s">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="202">
-      <c r="A202" s="0" t="s">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="203">
-      <c r="A203" s="0" t="s">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="204">
-      <c r="A204" s="0" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="205">
-      <c r="A205" s="0" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
         <v>206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="206">
-      <c r="A206" s="0" t="s">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="207">
-      <c r="A207" s="0" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="208">
-      <c r="A208" s="0" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="209">
-      <c r="A209" s="0" t="s">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="210">
-      <c r="A210" s="0" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>211</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="211">
-      <c r="A211" s="0" t="s">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="212">
-      <c r="A212" s="0" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
         <v>213</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="213">
-      <c r="A213" s="0" t="s">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>214</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="214">
-      <c r="A214" s="0" t="s">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="215">
-      <c r="A215" s="0" t="s">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="216">
-      <c r="A216" s="0" t="s">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="217">
-      <c r="A217" s="0" t="s">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="218">
-      <c r="A218" s="0" t="s">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
         <v>219</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="219">
-      <c r="A219" s="0" t="s">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="220">
-      <c r="A220" s="0" t="s">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
         <v>221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="221">
-      <c r="A221" s="0" t="s">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
         <v>222</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="222">
-      <c r="A222" s="0" t="s">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
         <v>223</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="223">
-      <c r="A223" s="0" t="s">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="224">
-      <c r="A224" s="0" t="s">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
         <v>225</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="225">
-      <c r="A225" s="0" t="s">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="226">
-      <c r="A226" s="0" t="s">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="227">
-      <c r="A227" s="0" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="228">
-      <c r="A228" s="0" t="s">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
         <v>229</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="229">
-      <c r="A229" s="0" t="s">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
         <v>230</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="230">
-      <c r="A230" s="0" t="s">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="231">
-      <c r="A231" s="0" t="s">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>232</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="232">
-      <c r="A232" s="0" t="s">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>233</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="233">
-      <c r="A233" s="0" t="s">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="234">
-      <c r="A234" s="0" t="s">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="235">
-      <c r="A235" s="0" t="s">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
         <v>236</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="236">
-      <c r="A236" s="0" t="s">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>237</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="237">
-      <c r="A237" s="0" t="s">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
         <v>238</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="238">
-      <c r="A238" s="0" t="s">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>239</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="239">
-      <c r="A239" s="0" t="s">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="240">
-      <c r="A240" s="0" t="s">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
         <v>241</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="241">
-      <c r="A241" s="0" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="242">
-      <c r="A242" s="0" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="243">
-      <c r="A243" s="0" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
         <v>244</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="244">
-      <c r="A244" s="0" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="245">
-      <c r="A245" s="0" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
         <v>246</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="246">
-      <c r="A246" s="0" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="247">
-      <c r="A247" s="0" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="248">
-      <c r="A248" s="0" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
         <v>249</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="249">
-      <c r="A249" s="0" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="251" s="3">
-      <c r="A251" s="3" t="s">
+    <row r="251" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="252">
-      <c r="A252" s="0" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
         <v>254</v>
       </c>
-      <c r="B252" s="0" t="s">
+      <c r="B252" t="s">
         <v>255</v>
       </c>
-      <c r="C252" s="0" t="n">
+      <c r="C252">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="253">
-      <c r="A253" s="0" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
         <v>256</v>
       </c>
-      <c r="B253" s="0" t="s">
+      <c r="B253" t="s">
         <v>257</v>
       </c>
-      <c r="C253" s="0" t="n">
+      <c r="C253">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="254">
-      <c r="A254" s="0" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
         <v>258</v>
       </c>
-      <c r="B254" s="0" t="s">
+      <c r="B254" t="s">
         <v>255</v>
       </c>
-      <c r="C254" s="0" t="n">
+      <c r="C254">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="255">
-      <c r="A255" s="0" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
         <v>259</v>
       </c>
-      <c r="B255" s="0" t="s">
+      <c r="B255" t="s">
         <v>255</v>
       </c>
-      <c r="C255" s="0" t="n">
+      <c r="C255">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="256">
-      <c r="A256" s="0" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
         <v>260</v>
       </c>
-      <c r="B256" s="0" t="s">
+      <c r="B256" t="s">
         <v>255</v>
       </c>
-      <c r="C256" s="0" t="n">
+      <c r="C256">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="257">
-      <c r="A257" s="0" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
         <v>261</v>
       </c>
-      <c r="B257" s="0" t="s">
+      <c r="B257" t="s">
         <v>255</v>
       </c>
-      <c r="C257" s="0" t="n">
+      <c r="C257">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="260" s="3">
-      <c r="A260" s="3" t="s">
+    <row r="260" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="261">
-      <c r="A261" s="0" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
         <v>263</v>
       </c>
-      <c r="B261" s="0" t="n">
+      <c r="B261">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="262">
-      <c r="A262" s="0" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="0" t="n">
+      <c r="B262">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="263">
-      <c r="A263" s="0" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
         <v>264</v>
       </c>
-      <c r="B263" s="0" t="n">
+      <c r="B263">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="264">
-      <c r="A264" s="0" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
         <v>265</v>
       </c>
-      <c r="B264" s="0" t="n">
+      <c r="B264">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="266" s="3">
-      <c r="A266" s="3" t="s">
+    <row r="266" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="267">
-      <c r="A267" s="0" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
         <v>267</v>
       </c>
-      <c r="B267" s="0" t="n">
+      <c r="B267">
         <v>0.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="268">
-      <c r="A268" s="0" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
         <v>268</v>
       </c>
-      <c r="B268" s="0" t="n">
+      <c r="B268">
         <v>0.6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="270" s="3">
-      <c r="A270" s="3" t="s">
+    <row r="270" spans="1:3" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="271">
-      <c r="A271" s="0" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="272">
-      <c r="A272" s="0" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2709,3118 +2871,2873 @@
   <mergeCells count="1">
     <mergeCell ref="A2:B2"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <f aca="false">AVERAGE(B3,D3)</f>
+      <c r="C3" s="20">
+        <f>AVERAGE(B3,D3)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <f aca="false">C4*AVERAGE(C4/B4)</f>
-        <v>10.6666666666667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="21">
+        <f>C4*AVERAGE(C4/B4)</f>
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.125"/>
+    <col min="2" max="2" width="11.125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <f aca="false">AVERAGE(B3,D3)</f>
+      <c r="C3" s="20">
+        <f>AVERAGE(B3,D3)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <f aca="false">AVERAGE(B3,D3)</f>
+      <c r="C3" s="20">
+        <f>AVERAGE(B3,D3)</f>
         <v>5</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="22" t="n">
-        <f aca="false">C4*AVERAGE(C4/B4)</f>
-        <v>10.6666666666667</v>
+      <c r="D4" s="21">
+        <f>C4*AVERAGE(C4/B4)</f>
+        <v>10.666666666666666</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="C8" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="19" t="n">
-        <f aca="false">AVERAGE(C5:C8)</f>
+      <c r="C9" s="18">
+        <f>AVERAGE(C5:C8)</f>
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <f aca="false">STDEV(C5:C8)</f>
+      <c r="C10" s="18">
+        <f>STDEV(C5:C8)</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A10">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="C8" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C9" s="19" t="n">
-        <f aca="false">AVERAGE(C5:C8)</f>
-        <v>4.66666666666667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20" t="s">
+      <c r="C9" s="18">
+        <f>AVERAGE(C5:C8)</f>
+        <v>4.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C10" s="19" t="n">
-        <f aca="false">STDEV(C5:C8)</f>
-        <v>2.08166599946613</v>
+      <c r="C10" s="18">
+        <f>STDEV(C5:C8)</f>
+        <v>2.0816659994661335</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A10">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G17" activeCellId="0" pane="topLeft" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">('A-Ordered'!B$2-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">('A-Ordered'!C$2-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f aca="false">('A-Ordered'!D$2-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="7" t="e">
+        <f>('A-Ordered'!B$2-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>('A-Ordered'!C$2-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <f>('A-Ordered'!D$2-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">('A-Ordered'!B$3-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">('A-Ordered'!C$3-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="e">
-        <f aca="false">('A-Ordered'!D$3-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="7" t="e">
+        <f>('A-Ordered'!B$3-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>('A-Ordered'!C$3-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>('A-Ordered'!D$3-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">('A-Ordered'!B$4-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">('A-Ordered'!C$4-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="e">
-        <f aca="false">('A-Ordered'!D$4-'a-ordered'!#ref!)/'a-ordered'!#ref!</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="7" t="e">
+        <f>('A-Ordered'!B$4-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>('A-Ordered'!C$4-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>('A-Ordered'!D$4-'A-Ordered'!#REF!)/'A-Ordered'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!B$2)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!C$2)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!D$2)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!B$2)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!C$2)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!D$2)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!B$3)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!C$3)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!D$3)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!B$3)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!C$3)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!D$3)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!B$4)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!C$4)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="e">
-        <f aca="false">('b-ordered'!#ref!-'B-Ordered'!D$4)/'b-ordered'!#ref!</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!B$4)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!C$4)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>('B-Ordered'!#REF!-'B-Ordered'!D$4)/'B-Ordered'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">('C-Ordered'!B$2-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">('C-Ordered'!C$2-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f aca="false">('C-Ordered'!D$2-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="7" t="e">
+        <f>('C-Ordered'!B$2-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>('C-Ordered'!C$2-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <f>('C-Ordered'!D$2-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">('C-Ordered'!B$3-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">('C-Ordered'!C$3-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="e">
-        <f aca="false">('C-Ordered'!D$3-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="7" t="e">
+        <f>('C-Ordered'!B$3-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>('C-Ordered'!C$3-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>('C-Ordered'!D$3-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">('C-Ordered'!B$4-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">('C-Ordered'!C$4-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="e">
-        <f aca="false">('C-Ordered'!D$4-'c-ordered'!#ref!)/'c-ordered'!#ref!</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="7" t="e">
+        <f>('C-Ordered'!B$4-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>('C-Ordered'!C$4-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>('C-Ordered'!D$4-'C-Ordered'!#REF!)/'C-Ordered'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">('D-Ordered'!B$2-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">('D-Ordered'!C$2-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="e">
-        <f aca="false">('D-Ordered'!D$2-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="3">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="7" t="e">
+        <f>('D-Ordered'!B$2-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>('D-Ordered'!C$2-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7" t="e">
+        <f>('D-Ordered'!D$2-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">('D-Ordered'!B$3-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">('D-Ordered'!C$3-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="e">
-        <f aca="false">('D-Ordered'!D$3-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18" outlineLevel="0" r="4">
-      <c r="A4" s="23" t="s">
+      <c r="B3" s="7" t="e">
+        <f>('D-Ordered'!B$3-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>('D-Ordered'!C$3-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7" t="e">
+        <f>('D-Ordered'!D$3-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">('D-Ordered'!B$4-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">('D-Ordered'!C$4-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="e">
-        <f aca="false">('D-Ordered'!D$4-'d-ordered'!#ref!)/'d-ordered'!#ref!</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="7" t="e">
+        <f>('D-Ordered'!B$4-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>('D-Ordered'!C$4-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7" t="e">
+        <f>('D-Ordered'!D$4-'D-Ordered'!#REF!)/'D-Ordered'!#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
-        <f aca="false">('Q1-Sorted'!C$5-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
+        <f>('Q1-Sorted'!C$5-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
         <v>-1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <f aca="false">('Q1-Sorted'!C$6-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
+      <c r="C6" s="7">
+        <f>('Q1-Sorted'!C$6-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <f aca="false">('Q1-Sorted'!C$7-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
+      <c r="C7" s="7">
+        <f>('Q1-Sorted'!C$7-'Q1-Sorted'!C$9)/'Q1-Sorted'!C$10</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
-        <f aca="false">('Q2-Sorted'!C$5-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
-        <v>1.12089707663561</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
+        <f>('Q2-Sorted'!C$5-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
+        <v>1.1208970766356094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
-        <f aca="false">('Q2-Sorted'!C$6-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
-        <v>-0.800640769025435</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+      <c r="C6" s="7">
+        <f>('Q2-Sorted'!C$6-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
+        <v>-0.80064076902543546</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8" t="n">
-        <f aca="false">('Q2-Sorted'!C$7-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
-        <v>-0.320256307610174</v>
+      <c r="C7" s="7">
+        <f>('Q2-Sorted'!C$7-'Q2-Sorted'!C$9)/'Q2-Sorted'!C$10</f>
+        <v>-0.32025630761017426</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A7" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A7">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">'A-Normalised'!D$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">'B-Normalised'!D$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <f aca="false">'Q2-Normalized'!C$5</f>
-        <v>1.12089707663561</v>
-      </c>
-      <c r="E2" s="8" t="e">
-        <f aca="false">'C-Normalised'!D$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="8" t="e">
-        <f aca="false">'D-Normalised'!D$2</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <f aca="false">'Q1-Normalized'!C$5</f>
+      <c r="B2" s="7" t="e">
+        <f>'A-Normalised'!D$2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>'B-Normalised'!D$2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7">
+        <f>'Q2-Normalized'!C$5</f>
+        <v>1.1208970766356094</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f>'C-Normalised'!D$2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f>'D-Normalised'!D$2</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="7">
+        <f>'Q1-Normalized'!C$5</f>
         <v>-1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">'A-Normalised'!D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">'B-Normalised'!D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <f aca="false">'Q2-Normalized'!C$6</f>
-        <v>-0.800640769025435</v>
-      </c>
-      <c r="E3" s="8" t="e">
-        <f aca="false">'C-Normalised'!D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="8" t="e">
-        <f aca="false">'D-Normalised'!D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">'Q1-Normalized'!C$6</f>
+      <c r="B3" s="7" t="e">
+        <f>'A-Normalised'!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>'B-Normalised'!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7">
+        <f>'Q2-Normalized'!C$6</f>
+        <v>-0.80064076902543546</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f>'C-Normalised'!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="7" t="e">
+        <f>'D-Normalised'!D3</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="7">
+        <f>'Q1-Normalized'!C$6</f>
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">'A-Normalised'!D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">'B-Normalised'!D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <f aca="false">'Q2-Normalized'!C$7</f>
-        <v>-0.320256307610174</v>
-      </c>
-      <c r="E4" s="8" t="e">
-        <f aca="false">'C-Normalised'!D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="8" t="e">
-        <f aca="false">'D-Normalised'!D4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <f aca="false">'Q1-Normalized'!C$7</f>
+      <c r="B4" s="7" t="e">
+        <f>'A-Normalised'!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>'B-Normalised'!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7">
+        <f>'Q2-Normalized'!C$7</f>
+        <v>-0.32025630761017426</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f>'C-Normalised'!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="7" t="e">
+        <f>'D-Normalised'!D4</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="7">
+        <f>'Q1-Normalized'!C$7</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!B2+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!C2+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D2" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!D2+8</f>
-        <v>9.12089707663561</v>
-      </c>
-      <c r="E2" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!E2+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F2" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!F2+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G2" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!G2+8</f>
+      <c r="B2" s="7" t="e">
+        <f>'Indicators-Normalized'!B2+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="7" t="e">
+        <f>'Indicators-Normalized'!C2+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D2" s="7">
+        <f>'Indicators-Normalized'!D2+8</f>
+        <v>9.1208970766356092</v>
+      </c>
+      <c r="E2" s="7" t="e">
+        <f>'Indicators-Normalized'!E2+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F2" s="7" t="e">
+        <f>'Indicators-Normalized'!F2+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G2" s="7">
+        <f>'Indicators-Normalized'!G2+8</f>
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!B3+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!C3+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!D3+8</f>
-        <v>7.19935923097456</v>
-      </c>
-      <c r="E3" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!E3+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!F3+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!G3+8</f>
+      <c r="B3" s="7" t="e">
+        <f>'Indicators-Normalized'!B3+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="7" t="e">
+        <f>'Indicators-Normalized'!C3+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="7">
+        <f>'Indicators-Normalized'!D3+8</f>
+        <v>7.1993592309745642</v>
+      </c>
+      <c r="E3" s="7" t="e">
+        <f>'Indicators-Normalized'!E3+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="7" t="e">
+        <f>'Indicators-Normalized'!F3+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="7">
+        <f>'Indicators-Normalized'!G3+8</f>
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!B4+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!C4+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!D4+8</f>
-        <v>7.67974369238983</v>
-      </c>
-      <c r="E4" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!E4+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="8" t="e">
-        <f aca="false">'Indicators-Normalized'!F4+8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <f aca="false">'Indicators-Normalized'!G4+8</f>
+      <c r="B4" s="7" t="e">
+        <f>'Indicators-Normalized'!B4+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="7" t="e">
+        <f>'Indicators-Normalized'!C4+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="7">
+        <f>'Indicators-Normalized'!D4+8</f>
+        <v>7.6797436923898257</v>
+      </c>
+      <c r="E4" s="7" t="e">
+        <f>'Indicators-Normalized'!E4+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="7" t="e">
+        <f>'Indicators-Normalized'!F4+8</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="7">
+        <f>'Indicators-Normalized'!G4+8</f>
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>259</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>0.5</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="24" t="e">
-        <f aca="false">IF(B2&gt;0,'Indicators-Adjusted'!B2*B2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="24" t="e">
-        <f aca="false">IF(C2&gt;0,'Indicators-Adjusted'!C2*C2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D3" s="24" t="n">
-        <f aca="false">IF(D2&gt;0,'Indicators-Adjusted'!D2*D2)</f>
-        <v>9.12089707663561</v>
-      </c>
-      <c r="E3" s="24" t="e">
-        <f aca="false">IF(E2&gt;0,'Indicators-Adjusted'!E2*E2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="24" t="e">
-        <f aca="false">IF(F2&gt;0,'Indicators-Adjusted'!F2*F2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="24" t="n">
-        <f aca="false">IF(G2&gt;0,'Indicators-Adjusted'!G2*G2)</f>
+      <c r="B3" s="23" t="e">
+        <f>IF(B2&gt;0,'Indicators-Adjusted'!B2*B2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="23" t="e">
+        <f>IF(C2&gt;0,'Indicators-Adjusted'!C2*C2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D3" s="23">
+        <f>IF(D2&gt;0,'Indicators-Adjusted'!D2*D2)</f>
+        <v>9.1208970766356092</v>
+      </c>
+      <c r="E3" s="23" t="e">
+        <f>IF(E2&gt;0,'Indicators-Adjusted'!E2*E2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="23" t="e">
+        <f>IF(F2&gt;0,'Indicators-Adjusted'!F2*F2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="23">
+        <f>IF(G2&gt;0,'Indicators-Adjusted'!G2*G2)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="24" t="e">
-        <f aca="false">IF(B2&gt;0,'Indicators-Adjusted'!B3*B2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="24" t="e">
-        <f aca="false">IF(C2&gt;0,'Indicators-Adjusted'!C3*C2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D4" s="24" t="n">
-        <f aca="false">IF(D2&gt;0,'Indicators-Adjusted'!D3*D2)</f>
-        <v>7.19935923097456</v>
-      </c>
-      <c r="E4" s="24" t="e">
-        <f aca="false">IF(E2&gt;0,'Indicators-Adjusted'!E3*E2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="24" t="e">
-        <f aca="false">IF(F2&gt;0,'Indicators-Adjusted'!F3*F2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="24" t="n">
-        <f aca="false">IF(G2&gt;0,'Indicators-Adjusted'!G3*G2)</f>
+      <c r="B4" s="23" t="e">
+        <f>IF(B2&gt;0,'Indicators-Adjusted'!B3*B2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="23" t="e">
+        <f>IF(C2&gt;0,'Indicators-Adjusted'!C3*C2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="23">
+        <f>IF(D2&gt;0,'Indicators-Adjusted'!D3*D2)</f>
+        <v>7.1993592309745642</v>
+      </c>
+      <c r="E4" s="23" t="e">
+        <f>IF(E2&gt;0,'Indicators-Adjusted'!E3*E2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="23" t="e">
+        <f>IF(F2&gt;0,'Indicators-Adjusted'!F3*F2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="23">
+        <f>IF(G2&gt;0,'Indicators-Adjusted'!G3*G2)</f>
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="24" t="e">
-        <f aca="false">IF(B2&gt;0,'Indicators-Adjusted'!B4*B2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="24" t="e">
-        <f aca="false">IF(C2&gt;0,'Indicators-Adjusted'!C4*C2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D5" s="24" t="n">
-        <f aca="false">IF(D2&gt;0,'Indicators-Adjusted'!D4*D2)</f>
-        <v>7.67974369238983</v>
-      </c>
-      <c r="E5" s="24" t="e">
-        <f aca="false">IF(E2&gt;0,'Indicators-Adjusted'!E4*E2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="24" t="e">
-        <f aca="false">IF(F2&gt;0,'Indicators-Adjusted'!F4*F2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="24" t="n">
-        <f aca="false">IF(G2&gt;0,'Indicators-Adjusted'!G4*G2)</f>
+      <c r="B5" s="23" t="e">
+        <f>IF(B2&gt;0,'Indicators-Adjusted'!B4*B2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="23" t="e">
+        <f>IF(C2&gt;0,'Indicators-Adjusted'!C4*C2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="23">
+        <f>IF(D2&gt;0,'Indicators-Adjusted'!D4*D2)</f>
+        <v>7.6797436923898257</v>
+      </c>
+      <c r="E5" s="23" t="e">
+        <f>IF(E2&gt;0,'Indicators-Adjusted'!E4*E2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="23" t="e">
+        <f>IF(F2&gt;0,'Indicators-Adjusted'!F4*F2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="23">
+        <f>IF(G2&gt;0,'Indicators-Adjusted'!G4*G2)</f>
         <v>4.5</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>263</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>261</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!B$3:C$3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="25" t="n">
-        <f aca="false">AVERAGE('Indicators-Weighted'!D3)</f>
-        <v>9.12089707663561</v>
-      </c>
-      <c r="D2" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!E3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E2" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!G3:F3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!B$3:C$3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="24">
+        <f>AVERAGE('Indicators-Weighted'!D3)</f>
+        <v>9.1208970766356092</v>
+      </c>
+      <c r="D2" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!E3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E2" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!F3:G3)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!B$4:C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="25" t="n">
-        <f aca="false">AVERAGE('Indicators-Weighted'!D4)</f>
-        <v>7.19935923097456</v>
-      </c>
-      <c r="D3" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!E4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!G4:F4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!B$4:C$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="24">
+        <f>AVERAGE('Indicators-Weighted'!D4)</f>
+        <v>7.1993592309745642</v>
+      </c>
+      <c r="D3" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!E4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!F4:G4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!B$5:C$5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="25" t="n">
-        <f aca="false">AVERAGE('Indicators-Weighted'!D5)</f>
-        <v>7.67974369238983</v>
-      </c>
-      <c r="D4" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!E5)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="25" t="e">
-        <f aca="false">AVERAGE('Indicators-Weighted'!G5:F5)</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!B$5:C$5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="24">
+        <f>AVERAGE('Indicators-Weighted'!D5)</f>
+        <v>7.6797436923898257</v>
+      </c>
+      <c r="D4" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!E5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="24" t="e">
+        <f>AVERAGE('Indicators-Weighted'!F5:G5)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!B2:C2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!D2:E2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!B2:C2)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C2" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!D2:E2)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!B3:C3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!D3:E3)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!B3:C3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!D3:E3)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!B4:C4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="25" t="e">
-        <f aca="false">AVERAGE('Clusters-Grouped'!D4:E4)</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!B4:C4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="24" t="e">
+        <f>AVERAGE('Clusters-Grouped'!D4:E4)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="26" t="e">
-        <f aca="false">'Subindex-Grouped'!B2*Metadata!B267+'Subindex-Grouped'!C2*Metadata!B268</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B2" s="25" t="e">
+        <f>'Subindex-Grouped'!B2*Metadata!B267+'Subindex-Grouped'!C2*Metadata!B268</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="26" t="e">
-        <f aca="false">'Subindex-Grouped'!B3*Metadata!B267+'Subindex-Grouped'!C3*Metadata!B268</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="25" t="e">
+        <f>'Subindex-Grouped'!B3*Metadata!B267+'Subindex-Grouped'!C3*Metadata!B268</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="26" t="e">
-        <f aca="false">'Subindex-Grouped'!B4*Metadata!B267+'Subindex-Grouped'!C4*Metadata!B268</f>
-        <v>#VALUE!</v>
+      <c r="B4" s="25" t="e">
+        <f>'Subindex-Grouped'!B4*Metadata!B267+'Subindex-Grouped'!C4*Metadata!B268</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A4" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A4">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1">
-      <c r="B1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>280</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>280</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>280</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" t="s">
         <v>266</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="26" t="s">
         <v>281</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>261</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>267</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>268</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="26" t="s">
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!B2,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" s="28" t="n">
-        <f aca="false">RANK('Clusters-Grouped'!C2,'Clusters-Grouped'!C$2:C$4)</f>
+      <c r="B3" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!B2,'Clusters-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C3" s="27">
+        <f>RANK('Clusters-Grouped'!C2,'Clusters-Grouped'!C$2:C$4)</f>
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!B2,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E3" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!D2,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F3" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!E2,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G3" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!C2,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H3" s="29" t="e">
-        <f aca="false">RANK(Composite!B2,Composite!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="D3" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!B2,'Subindex-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E3" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!D2,'Clusters-Grouped'!D$2:D$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F3" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!E2,'Clusters-Grouped'!E$2:E$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G3" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!C2,'Subindex-Grouped'!C$2:C$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H3" s="28" t="e">
+        <f>RANK(Composite!B2,Composite!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!B3,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" s="28" t="n">
-        <f aca="false">RANK('Clusters-Grouped'!C3,'Clusters-Grouped'!C$2:C$4)</f>
+      <c r="B4" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!B3,'Clusters-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C4" s="27">
+        <f>RANK('Clusters-Grouped'!C3,'Clusters-Grouped'!C$2:C$4)</f>
         <v>3</v>
       </c>
-      <c r="D4" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!B3,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E4" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!D3,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F4" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!E3,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!C3,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H4" s="29" t="e">
-        <f aca="false">RANK(Composite!B3,Composite!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="D4" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!B3,'Subindex-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E4" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!D3,'Clusters-Grouped'!D$2:D$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F4" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!E3,'Clusters-Grouped'!E$2:E$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G4" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!C3,'Subindex-Grouped'!C$2:C$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H4" s="28" t="e">
+        <f>RANK(Composite!B3,Composite!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!B4,'Clusters-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" s="28" t="n">
-        <f aca="false">RANK('Clusters-Grouped'!C4,'Clusters-Grouped'!C$2:C$4)</f>
+      <c r="B5" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!B4,'Clusters-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C5" s="27">
+        <f>RANK('Clusters-Grouped'!C4,'Clusters-Grouped'!C$2:C$4)</f>
         <v>2</v>
       </c>
-      <c r="D5" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!B4,'Subindex-Grouped'!B$2:B$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E5" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!D4,'Clusters-Grouped'!D$2:D$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F5" s="28" t="e">
-        <f aca="false">RANK('Clusters-Grouped'!E4,'Clusters-Grouped'!E$2:E$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" s="28" t="e">
-        <f aca="false">RANK('Subindex-Grouped'!C4,'Subindex-Grouped'!C$2:C$4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H5" s="29" t="e">
-        <f aca="false">RANK(Composite!B4,Composite!B$2:B$4)</f>
-        <v>#VALUE!</v>
+      <c r="D5" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!B4,'Subindex-Grouped'!B$2:B$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E5" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!D4,'Clusters-Grouped'!D$2:D$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F5" s="27" t="e">
+        <f>RANK('Clusters-Grouped'!E4,'Clusters-Grouped'!E$2:E$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G5" s="27" t="e">
+        <f>RANK('Subindex-Grouped'!C4,'Subindex-Grouped'!C$2:C$4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H5" s="28" t="e">
+        <f>RANK(Composite!B4,Composite!B$2:B$4)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:C65536"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D6" activeCellId="0" pane="topLeft" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="B2" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="3">
-      <c r="A3" s="12" t="s">
+    <row r="2" spans="1:3" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>6</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="7">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>8</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="6">
-      <c r="A6" s="14" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B6" s="9">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="9">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="1048576"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A6" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A6">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>6</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A10">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3" s="6">
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:3" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C3" s="6" t="n">
+      <c r="C3" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="5">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8" t="n">
+      <c r="B5" s="17"/>
+      <c r="C5" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="6">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="8">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="10" t="n">
+      <c r="C8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="10">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="19"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="18"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A5:A10" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A5:A10">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B2" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>datatype</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B1" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>indicators</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>6</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>8</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.125"/>
+    <col min="2" max="2" width="11.125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="n">
-        <f aca="false">AVERAGE(B3,D3)</f>
+      <c r="C3" s="20">
+        <f>AVERAGE(B3,D3)</f>
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100">
-      <selection activeCell="F25" activeCellId="0" pane="topLeft" sqref="F25"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="1" s="6">
-      <c r="B1" s="6" t="n">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="5">
         <v>2009</v>
       </c>
-      <c r="C1" s="6" t="n">
+      <c r="C1" s="5">
         <v>2010</v>
       </c>
-      <c r="D1" s="6" t="n">
+      <c r="D1" s="5">
         <v>2011</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="7">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="n">
+      <c r="C2" s="7">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="7">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="7">
         <v>7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="10" t="n">
+      <c r="B4" s="9">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="n">
+      <c r="D4" s="9">
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.75" outlineLevel="0" r="5">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="22" t="n">
+      <c r="C5" s="21">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="D5" s="9">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A2:A5" type="list">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5">
       <formula1>countries</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/conf/files/example.xlsx
+++ b/conf/files/example.xlsx
@@ -42,7 +42,7 @@
     <sheet name="Subindex-Grouped" sheetId="28" r:id="rId28"/>
     <sheet name="Composite" sheetId="29" r:id="rId29"/>
     <sheet name="Rankings" sheetId="30" r:id="rId30"/>
-    <sheet name="Survey-Raw" sheetId="31" r:id="rId31"/>
+    <sheet name="Survey-Ordered" sheetId="31" r:id="rId31"/>
   </sheets>
   <definedNames>
     <definedName name="countries">Metadata!$A$14:$A$249</definedName>
@@ -5105,8 +5105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="XEL1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
